--- a/database/ordenador_despesas.xlsx
+++ b/database/ordenador_despesas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63fbdbda17b5124d/Área de Trabalho/Programa git/pyqt6/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{22605DA4-D8A7-4625-AF08-B16AD72E65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4FF88C6-221D-4EB8-A7AD-EED08FF62691}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="14_{22605DA4-D8A7-4625-AF08-B16AD72E65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09F613F8-E09B-495B-9993-3EEBAE90D3A6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
+    <workbookView xWindow="5736" yWindow="348" windowWidth="17304" windowHeight="8892" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ALEXANDRE SOARES MATHEUS</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>posto</t>
+  </si>
+  <si>
+    <t>DEIVID ROMULO DA SILVA VICENTE</t>
+  </si>
+  <si>
+    <t>Segundo-Sargento (FR)</t>
   </si>
 </sst>
 </file>
@@ -142,6 +148,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184B528B-7B5E-4510-B870-156D10DC4C3E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,6 +517,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/database/ordenador_despesas.xlsx
+++ b/database/ordenador_despesas.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63fbdbda17b5124d/Área de Trabalho/Programa git/pyqt6/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb5bd7a50d11ebd7/Área de Trabalho/Programa PYQT6/pyqt6/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="14_{22605DA4-D8A7-4625-AF08-B16AD72E65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09F613F8-E09B-495B-9993-3EEBAE90D3A6}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="14_{22605DA4-D8A7-4625-AF08-B16AD72E65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D32865DC-8F3C-4C38-9CE2-993D9D420CB8}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="348" windowWidth="17304" windowHeight="8892" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="pregoeiros" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>ALEXANDRE SOARES MATHEUS</t>
   </si>
@@ -69,13 +70,40 @@
   </si>
   <si>
     <t>Segundo-Sargento (FR)</t>
+  </si>
+  <si>
+    <t>SG Macário</t>
+  </si>
+  <si>
+    <t>SG Joan</t>
+  </si>
+  <si>
+    <t>SG Peterson</t>
+  </si>
+  <si>
+    <t>SG Dimas</t>
+  </si>
+  <si>
+    <t>Ten Ana Paula</t>
+  </si>
+  <si>
+    <t>Ten Juliana Araújo</t>
+  </si>
+  <si>
+    <t>Tem Shayane</t>
+  </si>
+  <si>
+    <t>contador</t>
+  </si>
+  <si>
+    <t>Tem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +117,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Carlito"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,11 +155,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -133,6 +182,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,10 +206,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,18 +527,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184B528B-7B5E-4510-B870-156D10DC4C3E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -495,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -517,7 +571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -532,4 +586,91 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E986FE-D21F-4232-89FE-D287CB400B50}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/database/ordenador_despesas.xlsx
+++ b/database/ordenador_despesas.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb5bd7a50d11ebd7/Área de Trabalho/Programa PYQT6/pyqt6/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive\Área de Trabalho\Programa git\pyqt6\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="14_{22605DA4-D8A7-4625-AF08-B16AD72E65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D32865DC-8F3C-4C38-9CE2-993D9D420CB8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B46895-C34C-4BB1-A815-44D4D07DB29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="pregoeiros" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ALEXANDRE SOARES MATHEUS</t>
   </si>
@@ -64,46 +63,13 @@
   </si>
   <si>
     <t>posto</t>
-  </si>
-  <si>
-    <t>DEIVID ROMULO DA SILVA VICENTE</t>
-  </si>
-  <si>
-    <t>Segundo-Sargento (FR)</t>
-  </si>
-  <si>
-    <t>SG Macário</t>
-  </si>
-  <si>
-    <t>SG Joan</t>
-  </si>
-  <si>
-    <t>SG Peterson</t>
-  </si>
-  <si>
-    <t>SG Dimas</t>
-  </si>
-  <si>
-    <t>Ten Ana Paula</t>
-  </si>
-  <si>
-    <t>Ten Juliana Araújo</t>
-  </si>
-  <si>
-    <t>Tem Shayane</t>
-  </si>
-  <si>
-    <t>contador</t>
-  </si>
-  <si>
-    <t>Tem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,12 +83,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Carlito"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,26 +115,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -182,15 +127,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,20 +461,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184B528B-7B5E-4510-B870-156D10DC4C3E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -549,7 +485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -569,108 +505,10 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E986FE-D21F-4232-89FE-D287CB400B50}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="34" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/database/ordenador_despesas.xlsx
+++ b/database/ordenador_despesas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive\Área de Trabalho\Programa git\pyqt6\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb5bd7a50d11ebd7/Área de Trabalho/Programa PYQT6/pyqt6/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B46895-C34C-4BB1-A815-44D4D07DB29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E9B46895-C34C-4BB1-A815-44D4D07DB29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71015DF5-5420-4B84-AF42-5409AD4A86C3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>ALEXANDRE SOARES MATHEUS</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>posto</t>
+  </si>
+  <si>
+    <t>GUILHERME K</t>
   </si>
 </sst>
 </file>
@@ -142,6 +145,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,20 +468,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184B528B-7B5E-4510-B870-156D10DC4C3E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -485,7 +492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -504,6 +511,17 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/database/ordenador_despesas.xlsx
+++ b/database/ordenador_despesas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb5bd7a50d11ebd7/Área de Trabalho/Programa PYQT6/pyqt6/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E9B46895-C34C-4BB1-A815-44D4D07DB29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71015DF5-5420-4B84-AF42-5409AD4A86C3}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{E9B46895-C34C-4BB1-A815-44D4D07DB29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CACA1DA0-4DE2-4901-AC93-5B1E886F83F3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>ALEXANDRE SOARES MATHEUS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Ordenador de Despesa</t>
   </si>
   <si>
-    <t>Capitão de Mar e Guerra (IM)</t>
-  </si>
-  <si>
     <t>THIAGO MARTINS AMORIM</t>
   </si>
   <si>
@@ -59,13 +53,13 @@
     <t>nome</t>
   </si>
   <si>
-    <t>od</t>
-  </si>
-  <si>
     <t>posto</t>
   </si>
   <si>
-    <t>GUILHERME K</t>
+    <t>funcao</t>
+  </si>
+  <si>
+    <t>DAVID AMANCIO....</t>
   </si>
 </sst>
 </file>
@@ -468,61 +462,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184B528B-7B5E-4510-B870-156D10DC4C3E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" customWidth="1"/>
     <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/database/ordenador_despesas.xlsx
+++ b/database/ordenador_despesas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb5bd7a50d11ebd7/Área de Trabalho/Programa PYQT6/pyqt6/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive\Área de Trabalho\projeto_licitacao360\licitacao360\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{E9B46895-C34C-4BB1-A815-44D4D07DB29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CACA1DA0-4DE2-4901-AC93-5B1E886F83F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355074CB-FB39-48D1-B8B7-A3552C66E01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>funcao</t>
   </si>
   <si>
-    <t>DAVID AMANCIO....</t>
+    <t>BRUNO SANTA RITA MOREIRA</t>
   </si>
 </sst>
 </file>
@@ -139,10 +139,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,17 +461,17 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -486,9 +482,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -497,9 +493,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>

--- a/database/ordenador_despesas.xlsx
+++ b/database/ordenador_despesas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive\Área de Trabalho\projeto_licitacao360\licitacao360\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\Nova pasta\projeto_licitacao360\licitacao360\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355074CB-FB39-48D1-B8B7-A3552C66E01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09461067-1AD8-4943-ABD5-E8EC1387AE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Ordenador de Despesa</t>
   </si>
@@ -60,6 +49,33 @@
   </si>
   <si>
     <t>BRUNO SANTA RITA MOREIRA</t>
+  </si>
+  <si>
+    <t>Agente Fiscal</t>
+  </si>
+  <si>
+    <t>Agente Fiscal Substituto</t>
+  </si>
+  <si>
+    <t>Capitão de Corveta (IM)</t>
+  </si>
+  <si>
+    <t>GUILHERME KIRSCHNER DE SIQUEIRA CAMPOS</t>
+  </si>
+  <si>
+    <t>Gerente de Crédito</t>
+  </si>
+  <si>
+    <t>Posto-Graduacao</t>
+  </si>
+  <si>
+    <t>NOME COMPLETO</t>
+  </si>
+  <si>
+    <t>Encarregado da Divisão de Subsistência</t>
+  </si>
+  <si>
+    <t>RAMON DE LIMA FERNANDES</t>
   </si>
 </sst>
 </file>
@@ -458,20 +474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184B528B-7B5E-4510-B870-156D10DC4C3E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -482,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -493,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,6 +518,50 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/database/ordenador_despesas.xlsx
+++ b/database/ordenador_despesas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\Nova pasta\projeto_licitacao360\licitacao360\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09461067-1AD8-4943-ABD5-E8EC1387AE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B841642-91D2-40D7-8F57-3E6F27C25BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{AA7F9610-33D9-44E0-AC15-CF27201B7D9F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Ordenador de Despesa</t>
   </si>
@@ -39,15 +39,6 @@
     <t>Capitão de Fragata (IM)</t>
   </si>
   <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>posto</t>
-  </si>
-  <si>
-    <t>funcao</t>
-  </si>
-  <si>
     <t>BRUNO SANTA RITA MOREIRA</t>
   </si>
   <si>
@@ -63,19 +54,19 @@
     <t>GUILHERME KIRSCHNER DE SIQUEIRA CAMPOS</t>
   </si>
   <si>
-    <t>Gerente de Crédito</t>
-  </si>
-  <si>
-    <t>Posto-Graduacao</t>
-  </si>
-  <si>
-    <t>NOME COMPLETO</t>
-  </si>
-  <si>
     <t>Encarregado da Divisão de Subsistência</t>
   </si>
   <si>
     <t>RAMON DE LIMA FERNANDES</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Posto</t>
+  </si>
+  <si>
+    <t>Função</t>
   </si>
 </sst>
 </file>
@@ -474,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184B528B-7B5E-4510-B870-156D10DC4C3E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J11" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,18 +480,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -525,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -533,35 +524,24 @@
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
